--- a/TranXuanHung_TestCases_Search.xlsx
+++ b/TranXuanHung_TestCases_Search.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Katalon Studio\EXERCISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA071B4-9120-46AA-90E3-A51828280519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4C93D-B865-4629-9DB7-B6B10714B10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6DE39B7-AC91-4920-81CC-FAB09DA88256}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>TC_ID (*)</t>
   </si>
@@ -94,9 +94,6 @@
     </r>
   </si>
   <si>
-    <t>Website https://www.msb.com.vn is open</t>
-  </si>
-  <si>
     <t>"Vay thấu chi từ lương"</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>Search by User information match key word of a record</t>
   </si>
   <si>
-    <t>All records that match the input criteria are displayed</t>
-  </si>
-  <si>
     <t>TC_12</t>
   </si>
   <si>
@@ -296,16 +290,6 @@
     </r>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Check the font, size, color, position,... of text box</t>
-  </si>
-  <si>
-    <t>1. System opens Home page
-2. 
-- Format is same as design
-- Display placeholder "Chúng tôi có thể giúp gì cho bạn?"</t>
-  </si>
-  <si>
     <t>TC_15</t>
   </si>
   <si>
@@ -335,14 +319,6 @@
     </r>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Check grammar of text box</t>
-  </si>
-  <si>
-    <t>1. System opens Home page
-2. Content should be correct without any spelling or grammatical errors</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -375,26 +351,10 @@
     </r>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Enter data into Search text box</t>
-  </si>
-  <si>
-    <t>1. System opens Home page
-2. Displays data the user entered</t>
-  </si>
-  <si>
     <t>TC_17</t>
   </si>
   <si>
     <t>Verify that the input string can be copy-pasteable</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Copy and paste the input string</t>
-  </si>
-  <si>
-    <t>1. System opens Home page 
-2. Can be copy-pasted</t>
   </si>
   <si>
     <t>TC_18</t>
@@ -432,28 +392,10 @@
     </r>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Check default value of Search text box</t>
-  </si>
-  <si>
-    <t>1. System opens Home page 
-2. Default value: null</t>
-  </si>
-  <si>
     <t>Non-Functional</t>
   </si>
   <si>
     <t>Verify that items contains corresponding alphabet should be display by pressing an alphabet on the keyboard</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Click on Search box
-3. Press an alphabet on keyboard</t>
-  </si>
-  <si>
-    <t>1. System opens Search page
-2. Dropdown list is displayed
-3. Items containing the corresponding alphabet are highlighted</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -502,30 +444,100 @@
 2. Display search results corresponding to the selected suggested keyword.	</t>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Enter spaces in top/bottom/center of the input string in Search bar
-3. Press Enter.</t>
-  </si>
-  <si>
-    <t>1. System opens Home page
-2. Display characters as user type
-3. Leading and trailing spaces have been trimmed</t>
-  </si>
-  <si>
-    <t>1. Go to Home page 
-2. Enter User information match key word of a record
-7. Press Enter.</t>
-  </si>
-  <si>
-    <t>1. Go to Home page 
-2. Enter User information with special characters
-7. Press Enter.</t>
-  </si>
-  <si>
-    <t>1. Go to Home page 
-2. Choose ramdom page
-7. Enter criterias
-8. Press Enter</t>
+    <t xml:space="preserve">
+1. Enter User information match key word of a record
+2. Press Enter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Enter User information with special characters
+2. Press Enter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Check the font, size, color, position,... of text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Check grammar of text box</t>
+  </si>
+  <si>
+    <t>Go to Home page MSB</t>
+  </si>
+  <si>
+    <t>1. The keyword is displayed in the search tex box.
+2. The search results window will be displayed and the Suggested Results title will be displayed correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Choose ramdom page</t>
+  </si>
+  <si>
+    <t>1. The search bar should be consistently visible and functional on all pages of the search results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Enter data into Search text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Copy and paste the input string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Enter spaces in top/bottom/center of the input string in Search bar
+2. Press Enter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Check default value of Search text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click on Search box
+2. Press an alphabet on keyboard</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Able to automation</t>
+  </si>
+  <si>
+    <t>Unable to automation</t>
+  </si>
+  <si>
+    <t>1 - Format is same as design
+- Display placeholder "Chúng tôi có thể giúp gì cho bạn?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Content should be correct without any spelling or grammatical errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Displays data the user entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Can be copy-pasted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Display characters as user type
+2. Leading and trailing spaces have been trimmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Default value: null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Dropdown list is displayed
+2. Items containing the corresponding alphabet are highlighted</t>
   </si>
 </sst>
 </file>
@@ -573,13 +585,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -592,6 +597,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -664,9 +676,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -687,19 +696,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,775 +1045,826 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730D22F6-485F-4066-9F54-84CF79FD7533}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
-    <col min="9" max="15" width="8.88671875" style="3"/>
-    <col min="16" max="16" width="20.5546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="27.33203125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="2" customWidth="1"/>
+    <col min="10" max="15" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="20.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="I1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+    </row>
+    <row r="14" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-    </row>
-    <row r="14" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-    </row>
-    <row r="15" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:19" ht="69" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="I23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="19" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
@@ -1811,7 +1874,7 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>